--- a/Community/data.xlsx
+++ b/Community/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
   <si>
     <t>Karate</t>
   </si>
@@ -67,6 +67,48 @@
   </si>
   <si>
     <t>Football</t>
+  </si>
+  <si>
+    <t>fitness</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>REGULAR/S-</t>
+  </si>
+  <si>
+    <t>CLIQUE/S-</t>
+  </si>
+  <si>
+    <t>REGULAR/S+</t>
+  </si>
+  <si>
+    <t>CLIQUE/S+</t>
+  </si>
+  <si>
+    <t>times R-</t>
+  </si>
+  <si>
+    <t>times Q-</t>
+  </si>
+  <si>
+    <t>times R+</t>
+  </si>
+  <si>
+    <t>times Q+</t>
+  </si>
+  <si>
+    <t>fit R-</t>
+  </si>
+  <si>
+    <t>fit Q-</t>
+  </si>
+  <si>
+    <t>fit R+</t>
+  </si>
+  <si>
+    <t>fit Q+</t>
   </si>
 </sst>
 </file>
@@ -511,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +705,7 @@
         <v>115</v>
       </c>
       <c r="C10" s="5">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -701,7 +743,7 @@
       </c>
       <c r="C12" s="5">
         <f>C10 - AVERAGE(F10:F14)</f>
-        <v>120.60000000000002</v>
+        <v>123.60000000000002</v>
       </c>
       <c r="D12" s="5">
         <f>AVERAGE(G10:G14)</f>
@@ -725,7 +767,7 @@
       </c>
       <c r="C13" s="7">
         <f xml:space="preserve"> (C10-C12)/C10</f>
-        <v>0.80326264274061987</v>
+        <v>0.79935064935064937</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="11">
@@ -1555,12 +1597,749 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5">
+        <v>78</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>115</v>
+      </c>
+      <c r="C9" s="5">
+        <v>616</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3.4161000000000001</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.55449999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.56630000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4039</v>
+      </c>
+      <c r="C16" s="5">
+        <v>88234</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="5">
+        <v>903.00840000000005</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.55369999999999997</v>
+      </c>
+      <c r="I16">
+        <v>884.69989999999996</v>
+      </c>
+      <c r="J16">
+        <v>178.1489</v>
+      </c>
+      <c r="N16">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="O16">
+        <v>0.77510000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5">
+        <v>179.95490000000001</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.77080000000000004</v>
+      </c>
+      <c r="I17">
+        <v>1039.4963</v>
+      </c>
+      <c r="J17">
+        <v>159.0831</v>
+      </c>
+      <c r="N17">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="O17">
+        <v>0.76959999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="I18">
+        <v>979.60299999999995</v>
+      </c>
+      <c r="J18">
+        <v>242.6739</v>
+      </c>
+      <c r="N18">
+        <v>0.55189999999999995</v>
+      </c>
+      <c r="O18">
+        <v>0.77839999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="I19">
+        <v>852.4144</v>
+      </c>
+      <c r="J19">
+        <v>157.43100000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.5847</v>
+      </c>
+      <c r="O19">
+        <v>0.76729999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>758.82809999999995</v>
+      </c>
+      <c r="J20">
+        <v>162.4374</v>
+      </c>
+      <c r="N20">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="O20">
+        <v>0.76359999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5">
+        <v>22963</v>
+      </c>
+      <c r="C23" s="5">
+        <v>48436</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4941</v>
+      </c>
+      <c r="C30" s="5">
+        <v>6594</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5">
+        <v>334863</v>
+      </c>
+      <c r="C37" s="5">
+        <v>925872</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1134890</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2987624</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="5">
+        <v>36692</v>
+      </c>
+      <c r="C51" s="5">
+        <v>183831</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="5">
+        <v>18772</v>
+      </c>
+      <c r="C58" s="5">
+        <v>198110</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Community/data.xlsx
+++ b/Community/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="36">
   <si>
     <t>Karate</t>
   </si>
@@ -109,6 +109,30 @@
   </si>
   <si>
     <t>fit Q+</t>
+  </si>
+  <si>
+    <t>gens R-</t>
+  </si>
+  <si>
+    <t>gens Q-</t>
+  </si>
+  <si>
+    <t>gens R+</t>
+  </si>
+  <si>
+    <t>gens Q+</t>
+  </si>
+  <si>
+    <t>coms R-</t>
+  </si>
+  <si>
+    <t>coms Q-</t>
+  </si>
+  <si>
+    <t>coms R+</t>
+  </si>
+  <si>
+    <t>coms Q+</t>
   </si>
 </sst>
 </file>
@@ -554,7 +578,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:C66"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1632,7 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1625,8 +1649,56 @@
         <v>14</v>
       </c>
       <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1641,13 +1713,61 @@
         <v>16</v>
       </c>
       <c r="F2" s="5">
-        <v>8.5000000000000006E-2</v>
+        <v>3.49E-2</v>
       </c>
       <c r="G2" s="11">
-        <v>0.40699999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.41089999999999999</v>
+      </c>
+      <c r="I2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="K2">
+        <v>1.4201999999999999</v>
+      </c>
+      <c r="L2">
+        <v>1.6186</v>
+      </c>
+      <c r="N2">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="P2">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.41739999999999999</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>9</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1656,13 +1776,61 @@
         <v>17</v>
       </c>
       <c r="F3" s="5">
-        <v>8.2000000000000003E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="G3" s="5">
-        <v>0.41199999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="I3">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="J3">
+        <v>3.73E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.4577</v>
+      </c>
+      <c r="L3">
+        <v>1.0515000000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.41120000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.41739999999999999</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>4</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1670,10 +1838,62 @@
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F4" s="5">
+        <v>1.4478</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="I4">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="J4">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.4641999999999999</v>
+      </c>
+      <c r="L4">
+        <v>1.3344</v>
+      </c>
+      <c r="N4">
+        <v>0.41120000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="P4">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.41739999999999999</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1681,10 +1901,62 @@
       <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>1.2650999999999999</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.41739999999999999</v>
+      </c>
+      <c r="I5">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.4559</v>
+      </c>
+      <c r="L5">
+        <v>1.0175000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.40329999999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="P5">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.41739999999999999</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1692,9 +1964,57 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="J6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.4411</v>
+      </c>
+      <c r="L6">
+        <v>1.3036000000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.40939999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="P6">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.41739999999999999</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -1710,8 +2030,56 @@
       <c r="G8" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1726,13 +2094,61 @@
         <v>16</v>
       </c>
       <c r="F9" s="5">
-        <v>3.4161000000000001</v>
+        <v>0.3372</v>
       </c>
       <c r="G9" s="11">
-        <v>0.55449999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="I9">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.2172</v>
+      </c>
+      <c r="K9">
+        <v>14.472300000000001</v>
+      </c>
+      <c r="L9">
+        <v>3.7061000000000002</v>
+      </c>
+      <c r="N9">
+        <v>0.54320000000000002</v>
+      </c>
+      <c r="O9">
+        <v>0.57969999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.60440000000000005</v>
+      </c>
+      <c r="Q9">
+        <v>0.57089999999999996</v>
+      </c>
+      <c r="S9">
+        <v>16</v>
+      </c>
+      <c r="T9">
+        <v>22</v>
+      </c>
+      <c r="U9">
+        <v>14</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>6</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>9</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1741,13 +2157,61 @@
         <v>17</v>
       </c>
       <c r="F10" s="5">
-        <v>0.15379999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="G10" s="5">
-        <v>0.56630000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.56559999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J10">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="K10">
+        <v>14.682700000000001</v>
+      </c>
+      <c r="L10">
+        <v>3.5764999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.5413</v>
+      </c>
+      <c r="O10">
+        <v>0.5786</v>
+      </c>
+      <c r="P10">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="S10">
+        <v>31</v>
+      </c>
+      <c r="T10">
+        <v>13</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1755,10 +2219,62 @@
       <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>13.1495</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="I11">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="J11">
+        <v>5.45E-2</v>
+      </c>
+      <c r="K11">
+        <v>11.6218</v>
+      </c>
+      <c r="L11">
+        <v>2.5238999999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.54610000000000003</v>
+      </c>
+      <c r="O11">
+        <v>0.56110000000000004</v>
+      </c>
+      <c r="P11">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.58279999999999998</v>
+      </c>
+      <c r="S11">
+        <v>50</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>7</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1766,11 +2282,113 @@
       <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F12" s="5">
+        <v>3.6059999999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.57589999999999997</v>
+      </c>
+      <c r="I12">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="J12">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="K12">
+        <v>10.625</v>
+      </c>
+      <c r="L12">
+        <v>3.5787</v>
+      </c>
+      <c r="N12">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="O12">
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="P12">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="Q12">
+        <v>0.56389999999999996</v>
+      </c>
+      <c r="S12">
+        <v>30</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>7</v>
+      </c>
+      <c r="AA12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>0.30309999999999998</v>
+      </c>
+      <c r="J13">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="K13">
+        <v>14.345800000000001</v>
+      </c>
+      <c r="L13">
+        <v>4.6444999999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="O13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P13">
+        <v>0.59589999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="S13">
+        <v>32</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>7</v>
+      </c>
+      <c r="V13">
+        <v>11</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+      <c r="AA13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -1810,8 +2428,32 @@
       <c r="Q15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -1826,25 +2468,49 @@
         <v>16</v>
       </c>
       <c r="F16" s="5">
-        <v>903.00840000000005</v>
+        <v>262.28719999999998</v>
       </c>
       <c r="G16" s="11">
-        <v>0.55369999999999997</v>
+        <v>0.75280000000000002</v>
       </c>
       <c r="I16">
-        <v>884.69989999999996</v>
+        <v>301.70499999999998</v>
       </c>
       <c r="J16">
-        <v>178.1489</v>
+        <v>28.502700000000001</v>
+      </c>
+      <c r="L16">
+        <v>400.18979999999999</v>
       </c>
       <c r="N16">
-        <v>0.53149999999999997</v>
+        <v>0.73509999999999998</v>
       </c>
       <c r="O16">
-        <v>0.77510000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.81330000000000002</v>
+      </c>
+      <c r="Q16">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="S16">
+        <v>173</v>
+      </c>
+      <c r="T16">
+        <v>68</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>60</v>
+      </c>
+      <c r="Y16">
+        <v>32</v>
+      </c>
+      <c r="AA16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1853,25 +2519,49 @@
         <v>17</v>
       </c>
       <c r="F17" s="5">
-        <v>179.95490000000001</v>
+        <v>23.8536</v>
       </c>
       <c r="G17" s="5">
-        <v>0.77080000000000004</v>
+        <v>0.80110000000000003</v>
       </c>
       <c r="I17">
-        <v>1039.4963</v>
+        <v>303.06779999999998</v>
       </c>
       <c r="J17">
-        <v>159.0831</v>
+        <v>18.969899999999999</v>
+      </c>
+      <c r="L17">
+        <v>399.07900000000001</v>
       </c>
       <c r="N17">
-        <v>0.54520000000000002</v>
+        <v>0.73640000000000005</v>
       </c>
       <c r="O17">
-        <v>0.76959999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>0.81830000000000003</v>
+      </c>
+      <c r="S17">
+        <v>176</v>
+      </c>
+      <c r="T17">
+        <v>49</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>50</v>
+      </c>
+      <c r="Y17">
+        <v>37</v>
+      </c>
+      <c r="AA17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1882,19 +2572,43 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="I18">
-        <v>979.60299999999995</v>
+        <v>302.1891</v>
       </c>
       <c r="J18">
-        <v>242.6739</v>
+        <v>13.634600000000001</v>
+      </c>
+      <c r="L18">
+        <v>357.43779999999998</v>
       </c>
       <c r="N18">
-        <v>0.55189999999999995</v>
+        <v>0.77569999999999995</v>
       </c>
       <c r="O18">
-        <v>0.77839999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="Q18">
+        <v>0.81969999999999998</v>
+      </c>
+      <c r="S18">
+        <v>194</v>
+      </c>
+      <c r="T18">
+        <v>34</v>
+      </c>
+      <c r="V18">
+        <v>6</v>
+      </c>
+      <c r="X18">
+        <v>56</v>
+      </c>
+      <c r="Y18">
+        <v>29</v>
+      </c>
+      <c r="AA18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1902,37 +2616,89 @@
       <c r="E19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="5">
+        <v>391.85590000000002</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.82199999999999995</v>
+      </c>
       <c r="I19">
-        <v>852.4144</v>
+        <v>154.79509999999999</v>
       </c>
       <c r="J19">
-        <v>157.43100000000001</v>
+        <v>23.719200000000001</v>
+      </c>
+      <c r="L19">
+        <v>404.1164</v>
       </c>
       <c r="N19">
-        <v>0.5847</v>
+        <v>0.73950000000000005</v>
       </c>
       <c r="O19">
-        <v>0.76729999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="Q19">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="S19">
+        <v>96</v>
+      </c>
+      <c r="T19">
+        <v>59</v>
+      </c>
+      <c r="V19">
+        <v>7</v>
+      </c>
+      <c r="X19">
+        <v>80</v>
+      </c>
+      <c r="Y19">
+        <v>32</v>
+      </c>
+      <c r="AA19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I20">
-        <v>758.82809999999995</v>
+        <v>249.6788</v>
       </c>
       <c r="J20">
-        <v>162.4374</v>
+        <v>34.441499999999998</v>
+      </c>
+      <c r="L20">
+        <v>398.45670000000001</v>
       </c>
       <c r="N20">
-        <v>0.55520000000000003</v>
+        <v>0.77739999999999998</v>
       </c>
       <c r="O20">
-        <v>0.76359999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="Q20">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="S20">
+        <v>153</v>
+      </c>
+      <c r="T20">
+        <v>89</v>
+      </c>
+      <c r="V20">
+        <v>7</v>
+      </c>
+      <c r="X20">
+        <v>61</v>
+      </c>
+      <c r="Y20">
+        <v>29</v>
+      </c>
+      <c r="AA20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>1</v>
@@ -1949,7 +2715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1966,7 +2732,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1977,7 +2743,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1988,7 +2754,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1999,8 +2765,8 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>1</v>
@@ -2016,8 +2782,56 @@
       <c r="G29" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" t="s">
+        <v>28</v>
+      </c>
+      <c r="T29" t="s">
+        <v>29</v>
+      </c>
+      <c r="U29" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" t="s">
+        <v>31</v>
+      </c>
+      <c r="X29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -2034,7 +2848,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2045,7 +2859,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>

--- a/Community/data.xlsx
+++ b/Community/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="50">
   <si>
     <t>Karate</t>
   </si>
@@ -133,6 +133,48 @@
   </si>
   <si>
     <t>coms Q+</t>
+  </si>
+  <si>
+    <t>com Q-</t>
+  </si>
+  <si>
+    <t>REGULAR/S- 9</t>
+  </si>
+  <si>
+    <t>CLIQUE/S- 9</t>
+  </si>
+  <si>
+    <t>times R- 9</t>
+  </si>
+  <si>
+    <t>times Q- 9</t>
+  </si>
+  <si>
+    <t>fit R- 9</t>
+  </si>
+  <si>
+    <t>fit Q- 9</t>
+  </si>
+  <si>
+    <t>gens R- 9</t>
+  </si>
+  <si>
+    <t>gens Q- 9</t>
+  </si>
+  <si>
+    <t>coms R- 9</t>
+  </si>
+  <si>
+    <t>coms Q- 9</t>
+  </si>
+  <si>
+    <t>CLIQUE/S- 4</t>
+  </si>
+  <si>
+    <t>no conv</t>
+  </si>
+  <si>
+    <t>10min</t>
   </si>
 </sst>
 </file>
@@ -577,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA61"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,6 +2521,9 @@
       <c r="J16">
         <v>28.502700000000001</v>
       </c>
+      <c r="K16">
+        <v>714.78210000000001</v>
+      </c>
       <c r="L16">
         <v>400.18979999999999</v>
       </c>
@@ -2488,6 +2533,9 @@
       <c r="O16">
         <v>0.81330000000000002</v>
       </c>
+      <c r="P16">
+        <v>0.72660000000000002</v>
+      </c>
       <c r="Q16">
         <v>0.82220000000000004</v>
       </c>
@@ -2497,6 +2545,9 @@
       <c r="T16">
         <v>68</v>
       </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
       <c r="V16">
         <v>7</v>
       </c>
@@ -2505,6 +2556,9 @@
       </c>
       <c r="Y16">
         <v>32</v>
+      </c>
+      <c r="Z16">
+        <v>76</v>
       </c>
       <c r="AA16">
         <v>19</v>
@@ -2530,6 +2584,9 @@
       <c r="J17">
         <v>18.969899999999999</v>
       </c>
+      <c r="K17">
+        <v>710.55439999999999</v>
+      </c>
       <c r="L17">
         <v>399.07900000000001</v>
       </c>
@@ -2539,6 +2596,9 @@
       <c r="O17">
         <v>0.78520000000000001</v>
       </c>
+      <c r="P17">
+        <v>0.71889999999999998</v>
+      </c>
       <c r="Q17">
         <v>0.81830000000000003</v>
       </c>
@@ -2548,6 +2608,9 @@
       <c r="T17">
         <v>49</v>
       </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
       <c r="V17">
         <v>7</v>
       </c>
@@ -2556,6 +2619,9 @@
       </c>
       <c r="Y17">
         <v>37</v>
+      </c>
+      <c r="Z17">
+        <v>58</v>
       </c>
       <c r="AA17">
         <v>23</v>
@@ -2569,14 +2635,21 @@
       <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="5">
+        <v>699.44259999999997</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.7339</v>
+      </c>
       <c r="I18">
         <v>302.1891</v>
       </c>
       <c r="J18">
         <v>13.634600000000001</v>
       </c>
+      <c r="K18">
+        <v>715.33280000000002</v>
+      </c>
       <c r="L18">
         <v>357.43779999999998</v>
       </c>
@@ -2586,6 +2659,9 @@
       <c r="O18">
         <v>0.79610000000000003</v>
       </c>
+      <c r="P18">
+        <v>0.73509999999999998</v>
+      </c>
       <c r="Q18">
         <v>0.81969999999999998</v>
       </c>
@@ -2595,6 +2671,9 @@
       <c r="T18">
         <v>34</v>
       </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
       <c r="V18">
         <v>6</v>
       </c>
@@ -2603,6 +2682,9 @@
       </c>
       <c r="Y18">
         <v>29</v>
+      </c>
+      <c r="Z18">
+        <v>88</v>
       </c>
       <c r="AA18">
         <v>17</v>
@@ -2628,6 +2710,9 @@
       <c r="J19">
         <v>23.719200000000001</v>
       </c>
+      <c r="K19">
+        <v>702.25930000000005</v>
+      </c>
       <c r="L19">
         <v>404.1164</v>
       </c>
@@ -2637,6 +2722,9 @@
       <c r="O19">
         <v>0.80700000000000005</v>
       </c>
+      <c r="P19">
+        <v>0.75390000000000001</v>
+      </c>
       <c r="Q19">
         <v>0.82399999999999995</v>
       </c>
@@ -2646,6 +2734,9 @@
       <c r="T19">
         <v>59</v>
       </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
       <c r="V19">
         <v>7</v>
       </c>
@@ -2654,6 +2745,9 @@
       </c>
       <c r="Y19">
         <v>32</v>
+      </c>
+      <c r="Z19">
+        <v>72</v>
       </c>
       <c r="AA19">
         <v>16</v>
@@ -2666,6 +2760,9 @@
       <c r="J20">
         <v>34.441499999999998</v>
       </c>
+      <c r="K20">
+        <v>654.28409999999997</v>
+      </c>
       <c r="L20">
         <v>398.45670000000001</v>
       </c>
@@ -2675,6 +2772,9 @@
       <c r="O20">
         <v>0.80369999999999997</v>
       </c>
+      <c r="P20">
+        <v>0.73509999999999998</v>
+      </c>
       <c r="Q20">
         <v>0.82579999999999998</v>
       </c>
@@ -2684,6 +2784,9 @@
       <c r="T20">
         <v>89</v>
       </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
       <c r="V20">
         <v>7</v>
       </c>
@@ -2692,6 +2795,9 @@
       </c>
       <c r="Y20">
         <v>29</v>
+      </c>
+      <c r="Z20">
+        <v>78</v>
       </c>
       <c r="AA20">
         <v>18</v>
@@ -2714,6 +2820,54 @@
       <c r="G22" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>42</v>
+      </c>
+      <c r="S22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" t="s">
+        <v>44</v>
+      </c>
+      <c r="X22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -2729,8 +2883,60 @@
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="5">
+        <v>331.09</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.49109999999999998</v>
+      </c>
+      <c r="I23">
+        <v>337.89</v>
+      </c>
+      <c r="J23">
+        <v>334.89510000000001</v>
+      </c>
+      <c r="K23">
+        <v>132.26820000000001</v>
+      </c>
+      <c r="L23">
+        <v>135.65110000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.48530000000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.50980000000000003</v>
+      </c>
+      <c r="P23">
+        <v>0.4743</v>
+      </c>
+      <c r="Q23">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="S23">
+        <v>15</v>
+      </c>
+      <c r="T23">
+        <v>15</v>
+      </c>
+      <c r="U23">
+        <v>15</v>
+      </c>
+      <c r="V23">
+        <v>14</v>
+      </c>
+      <c r="X23">
+        <v>1004</v>
+      </c>
+      <c r="Y23">
+        <v>865</v>
+      </c>
+      <c r="Z23">
+        <v>1014</v>
+      </c>
+      <c r="AA23">
+        <v>871</v>
+      </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -2740,8 +2946,60 @@
       <c r="E24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="F24" s="5">
+        <v>344.8365</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.50839999999999996</v>
+      </c>
+      <c r="I24">
+        <v>349.23919999999998</v>
+      </c>
+      <c r="J24">
+        <v>354.7944</v>
+      </c>
+      <c r="K24">
+        <v>143.3236</v>
+      </c>
+      <c r="L24">
+        <v>130.46719999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.49709999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.50739999999999996</v>
+      </c>
+      <c r="P24">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="Q24">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="S24">
+        <v>15</v>
+      </c>
+      <c r="T24">
+        <v>15</v>
+      </c>
+      <c r="U24">
+        <v>15</v>
+      </c>
+      <c r="V24">
+        <v>15</v>
+      </c>
+      <c r="X24">
+        <v>968</v>
+      </c>
+      <c r="Y24">
+        <v>887</v>
+      </c>
+      <c r="Z24">
+        <v>972</v>
+      </c>
+      <c r="AA24">
+        <v>898</v>
+      </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -2749,10 +3007,62 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="F25" s="5">
+        <v>135.33250000000001</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.47510000000000002</v>
+      </c>
+      <c r="I25">
+        <v>333.39780000000002</v>
+      </c>
+      <c r="J25">
+        <v>348.24209999999999</v>
+      </c>
+      <c r="K25">
+        <v>147.33000000000001</v>
+      </c>
+      <c r="L25">
+        <v>133.0941</v>
+      </c>
+      <c r="N25">
+        <v>0.49540000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.5091</v>
+      </c>
+      <c r="P25">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="Q25">
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="S25">
+        <v>16</v>
+      </c>
+      <c r="T25">
+        <v>15</v>
+      </c>
+      <c r="U25">
+        <v>15</v>
+      </c>
+      <c r="V25">
+        <v>15</v>
+      </c>
+      <c r="X25">
+        <v>950</v>
+      </c>
+      <c r="Y25">
+        <v>891</v>
+      </c>
+      <c r="Z25">
+        <v>1023</v>
+      </c>
+      <c r="AA25">
+        <v>907</v>
+      </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -2760,10 +3070,112 @@
       <c r="C26" s="7"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="F26" s="5">
+        <v>138.23269999999999</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.49109999999999998</v>
+      </c>
+      <c r="I26">
+        <v>287.24590000000001</v>
+      </c>
+      <c r="J26">
+        <v>341.26990000000001</v>
+      </c>
+      <c r="K26">
+        <v>134.1985</v>
+      </c>
+      <c r="L26">
+        <v>156.58070000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.4819</v>
+      </c>
+      <c r="O26">
+        <v>0.51060000000000005</v>
+      </c>
+      <c r="P26">
+        <v>0.4743</v>
+      </c>
+      <c r="Q26">
+        <v>0.49159999999999998</v>
+      </c>
+      <c r="S26">
+        <v>15</v>
+      </c>
+      <c r="T26">
+        <v>15</v>
+      </c>
+      <c r="U26">
+        <v>12</v>
+      </c>
+      <c r="V26">
+        <v>15</v>
+      </c>
+      <c r="X26">
+        <v>1020</v>
+      </c>
+      <c r="Y26">
+        <v>924</v>
+      </c>
+      <c r="Z26">
+        <v>967</v>
+      </c>
+      <c r="AA26">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>348.67720000000003</v>
+      </c>
+      <c r="J27">
+        <v>344.98110000000003</v>
+      </c>
+      <c r="K27">
+        <v>119.5423</v>
+      </c>
+      <c r="L27">
+        <v>135.37020000000001</v>
+      </c>
+      <c r="N27">
+        <v>0.49590000000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="P27">
+        <v>0.47489999999999999</v>
+      </c>
+      <c r="Q27">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="S27">
+        <v>17</v>
+      </c>
+      <c r="T27">
+        <v>15</v>
+      </c>
+      <c r="U27">
+        <v>15</v>
+      </c>
+      <c r="V27">
+        <v>15</v>
+      </c>
+      <c r="X27">
+        <v>973</v>
+      </c>
+      <c r="Y27">
+        <v>862</v>
+      </c>
+      <c r="Z27">
+        <v>1007</v>
+      </c>
+      <c r="AA27">
+        <v>923</v>
+      </c>
     </row>
     <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -2788,47 +3200,23 @@
       <c r="J29" t="s">
         <v>21</v>
       </c>
-      <c r="K29" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" t="s">
-        <v>23</v>
-      </c>
       <c r="N29" t="s">
         <v>24</v>
       </c>
       <c r="O29" t="s">
         <v>25</v>
       </c>
-      <c r="P29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>27</v>
-      </c>
       <c r="S29" t="s">
         <v>28</v>
       </c>
       <c r="T29" t="s">
         <v>29</v>
       </c>
-      <c r="U29" t="s">
-        <v>30</v>
-      </c>
-      <c r="V29" t="s">
-        <v>31</v>
-      </c>
       <c r="X29" t="s">
         <v>32</v>
       </c>
       <c r="Y29" t="s">
         <v>33</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -2845,8 +3233,36 @@
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="5">
+        <v>264.60019999999997</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.78220000000000001</v>
+      </c>
+      <c r="I30">
+        <v>255.4708</v>
+      </c>
+      <c r="J30">
+        <v>84.111800000000002</v>
+      </c>
+      <c r="N30">
+        <v>0.77959999999999996</v>
+      </c>
+      <c r="O30">
+        <v>0.76380000000000003</v>
+      </c>
+      <c r="S30">
+        <v>307</v>
+      </c>
+      <c r="T30">
+        <v>123</v>
+      </c>
+      <c r="X30">
+        <v>567</v>
+      </c>
+      <c r="Y30">
+        <v>664</v>
+      </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -2856,33 +3272,131 @@
       <c r="E31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="5">
+        <v>144.9263</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.7893</v>
+      </c>
+      <c r="I31">
+        <v>277.94130000000001</v>
+      </c>
+      <c r="J31">
+        <v>117.95350000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.7823</v>
+      </c>
+      <c r="O31">
+        <v>0.78510000000000002</v>
+      </c>
+      <c r="S31">
+        <v>334</v>
+      </c>
+      <c r="T31">
+        <v>168</v>
+      </c>
+      <c r="X31">
+        <v>563</v>
+      </c>
+      <c r="Y31">
+        <v>593</v>
+      </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>301.48970000000003</v>
+      </c>
+      <c r="J32">
+        <v>167.6849</v>
+      </c>
+      <c r="N32">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="O32">
+        <v>0.79930000000000001</v>
+      </c>
+      <c r="S32">
+        <v>365</v>
+      </c>
+      <c r="T32">
+        <v>232</v>
+      </c>
+      <c r="X32">
+        <v>544</v>
+      </c>
+      <c r="Y32">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>230.5264</v>
+      </c>
+      <c r="J33">
+        <v>148.9872</v>
+      </c>
+      <c r="N33">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="O33">
+        <v>0.78680000000000005</v>
+      </c>
+      <c r="S33">
+        <v>281</v>
+      </c>
+      <c r="T33">
+        <v>213</v>
+      </c>
+      <c r="X33">
+        <v>586</v>
+      </c>
+      <c r="Y33">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>257.5729</v>
+      </c>
+      <c r="J34">
+        <v>205.8939</v>
+      </c>
+      <c r="N34">
+        <v>0.78490000000000004</v>
+      </c>
+      <c r="O34">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="S34">
+        <v>312</v>
+      </c>
+      <c r="T34">
+        <v>286</v>
+      </c>
+      <c r="X34">
+        <v>551</v>
+      </c>
+      <c r="Y34">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>1</v>
@@ -2898,8 +3412,20 @@
       <c r="G36" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
@@ -2910,47 +3436,41 @@
         <v>925872</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -2966,8 +3486,20 @@
       <c r="G43" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -2978,47 +3510,40 @@
         <v>2987624</v>
       </c>
       <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>1</v>
@@ -3034,8 +3559,32 @@
       <c r="G50" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" t="s">
+        <v>28</v>
+      </c>
+      <c r="T50" t="s">
+        <v>29</v>
+      </c>
+      <c r="X50" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -3047,46 +3596,112 @@
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>621.18010000000004</v>
+      </c>
+      <c r="O51">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="T51">
+        <v>54</v>
+      </c>
+      <c r="Y51">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F52" s="5">
+        <v>616.07730000000004</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.3614</v>
+      </c>
+      <c r="J52">
+        <v>613.9502</v>
+      </c>
+      <c r="O52">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="T52">
+        <v>49</v>
+      </c>
+      <c r="Y52">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+      <c r="B53" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>614.13840000000005</v>
+      </c>
+      <c r="O53">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="T53">
+        <v>48</v>
+      </c>
+      <c r="Y53">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>614.577</v>
+      </c>
+      <c r="O54">
+        <v>0.35680000000000001</v>
+      </c>
+      <c r="T54">
+        <v>51</v>
+      </c>
+      <c r="Y54">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>616.54070000000002</v>
+      </c>
+      <c r="O55">
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="T55">
+        <v>57</v>
+      </c>
+      <c r="Y55">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
         <v>1</v>
@@ -3102,8 +3717,20 @@
       <c r="G57" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
@@ -3114,13 +3741,23 @@
         <v>198110</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>123.6211</v>
+      </c>
+      <c r="J58">
+        <v>0.46660000000000001</v>
+      </c>
+      <c r="K58">
+        <v>31</v>
+      </c>
+      <c r="L58">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -3128,30 +3765,80 @@
       <c r="E59" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F59" s="5">
+        <v>134.90989999999999</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.46029999999999999</v>
+      </c>
+      <c r="I59">
+        <v>129.93809999999999</v>
+      </c>
+      <c r="J59">
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="K59">
+        <v>33</v>
+      </c>
+      <c r="L59">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>75.951700000000002</v>
+      </c>
+      <c r="J60">
+        <v>0.44679999999999997</v>
+      </c>
+      <c r="K60">
+        <v>20</v>
+      </c>
+      <c r="L60">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
+      <c r="I61">
+        <v>150.12029999999999</v>
+      </c>
+      <c r="J61">
+        <v>0.47120000000000001</v>
+      </c>
+      <c r="K61">
+        <v>38</v>
+      </c>
+      <c r="L61">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>194.91849999999999</v>
+      </c>
+      <c r="J62">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="K62">
+        <v>48</v>
+      </c>
+      <c r="L62">
+        <v>604</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Community/data.xlsx
+++ b/Community/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="50">
   <si>
     <t>Karate</t>
   </si>
@@ -1665,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="U56" sqref="U56"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57:Y57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3446,7 +3446,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -3559,30 +3559,6 @@
       <c r="G50" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" t="s">
-        <v>25</v>
-      </c>
-      <c r="S50" t="s">
-        <v>28</v>
-      </c>
-      <c r="T50" t="s">
-        <v>29</v>
-      </c>
-      <c r="X50" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -3598,16 +3574,32 @@
       <c r="E51" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="11"/>
+      <c r="F51" s="5">
+        <v>631.12879999999996</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="I51">
+        <v>635.85709999999995</v>
+      </c>
       <c r="J51">
         <v>621.18010000000004</v>
       </c>
+      <c r="N51">
+        <v>0.27929999999999999</v>
+      </c>
       <c r="O51">
         <v>0.37309999999999999</v>
       </c>
+      <c r="S51">
+        <v>35</v>
+      </c>
       <c r="T51">
         <v>54</v>
+      </c>
+      <c r="X51">
+        <v>2602</v>
       </c>
       <c r="Y51">
         <v>1727</v>
@@ -3629,14 +3621,26 @@
       <c r="G52" s="5">
         <v>0.3614</v>
       </c>
+      <c r="I52">
+        <v>633.73829999999998</v>
+      </c>
       <c r="J52">
         <v>613.9502</v>
       </c>
+      <c r="N52">
+        <v>0.28349999999999997</v>
+      </c>
       <c r="O52">
         <v>0.35980000000000001</v>
       </c>
+      <c r="S52">
+        <v>34</v>
+      </c>
       <c r="T52">
         <v>49</v>
+      </c>
+      <c r="X52">
+        <v>2667</v>
       </c>
       <c r="Y52">
         <v>1794</v>
@@ -3652,14 +3656,26 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
+      <c r="I53">
+        <v>628.43949999999995</v>
+      </c>
       <c r="J53">
         <v>614.13840000000005</v>
       </c>
+      <c r="N53">
+        <v>0.28220000000000001</v>
+      </c>
       <c r="O53">
         <v>0.35659999999999997</v>
       </c>
+      <c r="S53">
+        <v>37</v>
+      </c>
       <c r="T53">
         <v>48</v>
+      </c>
+      <c r="X53">
+        <v>2689</v>
       </c>
       <c r="Y53">
         <v>1786</v>
@@ -3673,28 +3689,52 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
+      <c r="I54">
+        <v>623.41459999999995</v>
+      </c>
       <c r="J54">
         <v>614.577</v>
       </c>
+      <c r="N54">
+        <v>0.28039999999999998</v>
+      </c>
       <c r="O54">
         <v>0.35680000000000001</v>
       </c>
+      <c r="S54">
+        <v>38</v>
+      </c>
       <c r="T54">
         <v>51</v>
       </c>
+      <c r="X54">
+        <v>2661</v>
+      </c>
       <c r="Y54">
         <v>1769</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>634.1943</v>
+      </c>
       <c r="J55">
         <v>616.54070000000002</v>
       </c>
+      <c r="N55">
+        <v>0.2797</v>
+      </c>
       <c r="O55">
         <v>0.36070000000000002</v>
       </c>
+      <c r="S55">
+        <v>37</v>
+      </c>
       <c r="T55">
         <v>57</v>
+      </c>
+      <c r="X55">
+        <v>2668</v>
       </c>
       <c r="Y55">
         <v>1801</v>
@@ -3718,16 +3758,28 @@
         <v>14</v>
       </c>
       <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
         <v>21</v>
       </c>
-      <c r="J57" t="s">
+      <c r="N57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" t="s">
         <v>25</v>
       </c>
-      <c r="K57" t="s">
+      <c r="S57" t="s">
+        <v>28</v>
+      </c>
+      <c r="T57" t="s">
         <v>29</v>
       </c>
-      <c r="L57" t="s">
-        <v>36</v>
+      <c r="X57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
@@ -3741,19 +3793,21 @@
         <v>198110</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F58" s="5"/>
       <c r="G58" s="11"/>
-      <c r="I58">
+      <c r="J58">
         <v>123.6211</v>
       </c>
-      <c r="J58">
+      <c r="O58">
         <v>0.46660000000000001</v>
       </c>
-      <c r="K58">
+      <c r="T58">
         <v>31</v>
       </c>
-      <c r="L58">
+      <c r="Y58">
         <v>603</v>
       </c>
     </row>
@@ -3771,16 +3825,16 @@
       <c r="G59" s="5">
         <v>0.46029999999999999</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>129.93809999999999</v>
       </c>
-      <c r="J59">
+      <c r="O59">
         <v>0.45960000000000001</v>
       </c>
-      <c r="K59">
+      <c r="T59">
         <v>33</v>
       </c>
-      <c r="L59">
+      <c r="Y59">
         <v>599</v>
       </c>
     </row>
@@ -3792,16 +3846,16 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="I60">
+      <c r="J60">
         <v>75.951700000000002</v>
       </c>
-      <c r="J60">
+      <c r="O60">
         <v>0.44679999999999997</v>
       </c>
-      <c r="K60">
+      <c r="T60">
         <v>20</v>
       </c>
-      <c r="L60">
+      <c r="Y60">
         <v>606</v>
       </c>
     </row>
@@ -3813,30 +3867,30 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="I61">
+      <c r="J61">
         <v>150.12029999999999</v>
       </c>
-      <c r="J61">
+      <c r="O61">
         <v>0.47120000000000001</v>
       </c>
-      <c r="K61">
+      <c r="T61">
         <v>38</v>
       </c>
-      <c r="L61">
+      <c r="Y61">
         <v>600</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I62">
+      <c r="J62">
         <v>194.91849999999999</v>
       </c>
-      <c r="J62">
+      <c r="O62">
         <v>0.45729999999999998</v>
       </c>
-      <c r="K62">
+      <c r="T62">
         <v>48</v>
       </c>
-      <c r="L62">
+      <c r="Y62">
         <v>604</v>
       </c>
     </row>

--- a/Community/data.xlsx
+++ b/Community/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="48">
   <si>
     <t>Karate</t>
   </si>
@@ -135,9 +135,6 @@
     <t>coms Q+</t>
   </si>
   <si>
-    <t>com Q-</t>
-  </si>
-  <si>
     <t>REGULAR/S- 9</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
   </si>
   <si>
     <t>coms Q- 9</t>
-  </si>
-  <si>
-    <t>CLIQUE/S- 4</t>
   </si>
   <si>
     <t>no conv</t>
@@ -619,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA62"/>
+  <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57:Y57"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,10 +2821,10 @@
         <v>21</v>
       </c>
       <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
         <v>39</v>
-      </c>
-      <c r="L22" t="s">
-        <v>40</v>
       </c>
       <c r="N22" t="s">
         <v>24</v>
@@ -2839,10 +2833,10 @@
         <v>25</v>
       </c>
       <c r="P22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22" t="s">
         <v>41</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>42</v>
       </c>
       <c r="S22" t="s">
         <v>28</v>
@@ -2851,10 +2845,10 @@
         <v>29</v>
       </c>
       <c r="U22" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" t="s">
         <v>43</v>
-      </c>
-      <c r="V22" t="s">
-        <v>44</v>
       </c>
       <c r="X22" t="s">
         <v>32</v>
@@ -2863,10 +2857,10 @@
         <v>33</v>
       </c>
       <c r="Z22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA22" t="s">
         <v>45</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -3007,7 +3001,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="5">
         <v>135.33250000000001</v>
@@ -3070,7 +3064,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="5">
         <v>138.23269999999999</v>
@@ -3413,52 +3407,150 @@
         <v>14</v>
       </c>
       <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
         <v>21</v>
       </c>
-      <c r="J36" t="s">
+      <c r="N36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" t="s">
         <v>25</v>
       </c>
-      <c r="K36" t="s">
+      <c r="S36" t="s">
+        <v>28</v>
+      </c>
+      <c r="T36" t="s">
         <v>29</v>
       </c>
-      <c r="L36" t="s">
-        <v>36</v>
+      <c r="X36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B37" s="5">
-        <v>334863</v>
+        <v>36692</v>
       </c>
       <c r="C37" s="5">
-        <v>925872</v>
+        <v>183831</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="11"/>
+      <c r="E37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="5">
+        <v>631.12879999999996</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="I37">
+        <v>635.85709999999995</v>
+      </c>
+      <c r="J37">
+        <v>621.18010000000004</v>
+      </c>
+      <c r="N37">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="S37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>54</v>
+      </c>
+      <c r="X37">
+        <v>2602</v>
+      </c>
+      <c r="Y37">
+        <v>1727</v>
+      </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="F38" s="5">
+        <v>616.07730000000004</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.3614</v>
+      </c>
+      <c r="I38">
+        <v>633.73829999999998</v>
+      </c>
+      <c r="J38">
+        <v>613.9502</v>
+      </c>
+      <c r="N38">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="O38">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="S38">
+        <v>34</v>
+      </c>
+      <c r="T38">
+        <v>49</v>
+      </c>
+      <c r="X38">
+        <v>2667</v>
+      </c>
+      <c r="Y38">
+        <v>1794</v>
+      </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
+      <c r="I39">
+        <v>628.43949999999995</v>
+      </c>
+      <c r="J39">
+        <v>614.13840000000005</v>
+      </c>
+      <c r="N39">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="O39">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="S39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>48</v>
+      </c>
+      <c r="X39">
+        <v>2689</v>
+      </c>
+      <c r="Y39">
+        <v>1786</v>
+      </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
@@ -3468,6 +3560,56 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
+      <c r="I40">
+        <v>623.41459999999995</v>
+      </c>
+      <c r="J40">
+        <v>614.577</v>
+      </c>
+      <c r="N40">
+        <v>0.28039999999999998</v>
+      </c>
+      <c r="O40">
+        <v>0.35680000000000001</v>
+      </c>
+      <c r="S40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>51</v>
+      </c>
+      <c r="X40">
+        <v>2661</v>
+      </c>
+      <c r="Y40">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>634.1943</v>
+      </c>
+      <c r="J41">
+        <v>616.54070000000002</v>
+      </c>
+      <c r="N41">
+        <v>0.2797</v>
+      </c>
+      <c r="O41">
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="S41">
+        <v>37</v>
+      </c>
+      <c r="T41">
+        <v>57</v>
+      </c>
+      <c r="X41">
+        <v>2668</v>
+      </c>
+      <c r="Y41">
+        <v>1801</v>
+      </c>
     </row>
     <row r="42" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -3487,31 +3629,74 @@
         <v>14</v>
       </c>
       <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
         <v>21</v>
       </c>
-      <c r="J43" t="s">
+      <c r="N43" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" t="s">
         <v>25</v>
       </c>
-      <c r="K43" t="s">
+      <c r="S43" t="s">
+        <v>28</v>
+      </c>
+      <c r="T43" t="s">
         <v>29</v>
       </c>
-      <c r="L43" t="s">
-        <v>36</v>
+      <c r="X43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B44" s="5">
-        <v>1134890</v>
+        <v>18772</v>
       </c>
       <c r="C44" s="5">
-        <v>2987624</v>
+        <v>198110</v>
       </c>
       <c r="D44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="11"/>
+      <c r="E44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="5">
+        <v>323.10550000000001</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0.24149999999999999</v>
+      </c>
+      <c r="I44">
+        <v>319.98649999999998</v>
+      </c>
+      <c r="J44">
+        <v>123.6211</v>
+      </c>
+      <c r="N44">
+        <v>0.24679999999999999</v>
+      </c>
+      <c r="O44">
+        <v>0.46660000000000001</v>
+      </c>
+      <c r="S44">
+        <v>28</v>
+      </c>
+      <c r="T44">
+        <v>31</v>
+      </c>
+      <c r="X44">
+        <v>1197</v>
+      </c>
+      <c r="Y44">
+        <v>603</v>
+      </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -3519,10 +3704,38 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="F45" s="5">
+        <v>134.90989999999999</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.46029999999999999</v>
+      </c>
+      <c r="I45">
+        <v>322.92250000000001</v>
+      </c>
+      <c r="J45">
+        <v>129.93809999999999</v>
+      </c>
+      <c r="N45">
+        <v>0.23810000000000001</v>
+      </c>
+      <c r="O45">
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="S45">
+        <v>25</v>
+      </c>
+      <c r="T45">
+        <v>33</v>
+      </c>
+      <c r="X45">
+        <v>1186</v>
+      </c>
+      <c r="Y45">
+        <v>599</v>
+      </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
@@ -3532,6 +3745,30 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
+      <c r="I46">
+        <v>325.15339999999998</v>
+      </c>
+      <c r="J46">
+        <v>75.951700000000002</v>
+      </c>
+      <c r="N46">
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="O46">
+        <v>0.44679999999999997</v>
+      </c>
+      <c r="S46">
+        <v>27</v>
+      </c>
+      <c r="T46">
+        <v>20</v>
+      </c>
+      <c r="X46">
+        <v>1184</v>
+      </c>
+      <c r="Y46">
+        <v>606</v>
+      </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -3541,356 +3778,54 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-    </row>
-    <row r="49" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="5">
-        <v>36692</v>
-      </c>
-      <c r="C51" s="5">
-        <v>183831</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="5">
-        <v>631.12879999999996</v>
-      </c>
-      <c r="G51" s="11">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="I51">
-        <v>635.85709999999995</v>
-      </c>
-      <c r="J51">
-        <v>621.18010000000004</v>
-      </c>
-      <c r="N51">
-        <v>0.27929999999999999</v>
-      </c>
-      <c r="O51">
-        <v>0.37309999999999999</v>
-      </c>
-      <c r="S51">
-        <v>35</v>
-      </c>
-      <c r="T51">
-        <v>54</v>
-      </c>
-      <c r="X51">
-        <v>2602</v>
-      </c>
-      <c r="Y51">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5" t="s">
+      <c r="I47">
+        <v>326.46319999999997</v>
+      </c>
+      <c r="J47">
+        <v>150.12029999999999</v>
+      </c>
+      <c r="N47">
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="O47">
+        <v>0.47120000000000001</v>
+      </c>
+      <c r="S47">
+        <v>27</v>
+      </c>
+      <c r="T47">
+        <v>38</v>
+      </c>
+      <c r="X47">
+        <v>1196</v>
+      </c>
+      <c r="Y47">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>321.00209999999998</v>
+      </c>
+      <c r="J48">
+        <v>194.91849999999999</v>
+      </c>
+      <c r="N48">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="O48">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="S48">
+        <v>26</v>
+      </c>
+      <c r="T48">
         <v>48</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" s="5">
-        <v>616.07730000000004</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0.3614</v>
-      </c>
-      <c r="I52">
-        <v>633.73829999999998</v>
-      </c>
-      <c r="J52">
-        <v>613.9502</v>
-      </c>
-      <c r="N52">
-        <v>0.28349999999999997</v>
-      </c>
-      <c r="O52">
-        <v>0.35980000000000001</v>
-      </c>
-      <c r="S52">
-        <v>34</v>
-      </c>
-      <c r="T52">
-        <v>49</v>
-      </c>
-      <c r="X52">
-        <v>2667</v>
-      </c>
-      <c r="Y52">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="I53">
-        <v>628.43949999999995</v>
-      </c>
-      <c r="J53">
-        <v>614.13840000000005</v>
-      </c>
-      <c r="N53">
-        <v>0.28220000000000001</v>
-      </c>
-      <c r="O53">
-        <v>0.35659999999999997</v>
-      </c>
-      <c r="S53">
-        <v>37</v>
-      </c>
-      <c r="T53">
-        <v>48</v>
-      </c>
-      <c r="X53">
-        <v>2689</v>
-      </c>
-      <c r="Y53">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="I54">
-        <v>623.41459999999995</v>
-      </c>
-      <c r="J54">
-        <v>614.577</v>
-      </c>
-      <c r="N54">
-        <v>0.28039999999999998</v>
-      </c>
-      <c r="O54">
-        <v>0.35680000000000001</v>
-      </c>
-      <c r="S54">
-        <v>38</v>
-      </c>
-      <c r="T54">
-        <v>51</v>
-      </c>
-      <c r="X54">
-        <v>2661</v>
-      </c>
-      <c r="Y54">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I55">
-        <v>634.1943</v>
-      </c>
-      <c r="J55">
-        <v>616.54070000000002</v>
-      </c>
-      <c r="N55">
-        <v>0.2797</v>
-      </c>
-      <c r="O55">
-        <v>0.36070000000000002</v>
-      </c>
-      <c r="S55">
-        <v>37</v>
-      </c>
-      <c r="T55">
-        <v>57</v>
-      </c>
-      <c r="X55">
-        <v>2668</v>
-      </c>
-      <c r="Y55">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" t="s">
-        <v>24</v>
-      </c>
-      <c r="O57" t="s">
-        <v>25</v>
-      </c>
-      <c r="S57" t="s">
-        <v>28</v>
-      </c>
-      <c r="T57" t="s">
-        <v>29</v>
-      </c>
-      <c r="X57" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="5">
-        <v>18772</v>
-      </c>
-      <c r="C58" s="5">
-        <v>198110</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="11"/>
-      <c r="J58">
-        <v>123.6211</v>
-      </c>
-      <c r="O58">
-        <v>0.46660000000000001</v>
-      </c>
-      <c r="T58">
-        <v>31</v>
-      </c>
-      <c r="Y58">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="5">
-        <v>134.90989999999999</v>
-      </c>
-      <c r="G59" s="5">
-        <v>0.46029999999999999</v>
-      </c>
-      <c r="J59">
-        <v>129.93809999999999</v>
-      </c>
-      <c r="O59">
-        <v>0.45960000000000001</v>
-      </c>
-      <c r="T59">
-        <v>33</v>
-      </c>
-      <c r="Y59">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="J60">
-        <v>75.951700000000002</v>
-      </c>
-      <c r="O60">
-        <v>0.44679999999999997</v>
-      </c>
-      <c r="T60">
-        <v>20</v>
-      </c>
-      <c r="Y60">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="J61">
-        <v>150.12029999999999</v>
-      </c>
-      <c r="O61">
-        <v>0.47120000000000001</v>
-      </c>
-      <c r="T61">
-        <v>38</v>
-      </c>
-      <c r="Y61">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J62">
-        <v>194.91849999999999</v>
-      </c>
-      <c r="O62">
-        <v>0.45729999999999998</v>
-      </c>
-      <c r="T62">
-        <v>48</v>
-      </c>
-      <c r="Y62">
+      <c r="X48">
+        <v>1166</v>
+      </c>
+      <c r="Y48">
         <v>604</v>
       </c>
     </row>

--- a/Community/data.xlsx
+++ b/Community/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Community/data.xlsx
+++ b/Community/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorik\Documents\GitHub\Capita\Community\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="70">
   <si>
     <t>Karate</t>
   </si>
@@ -194,12 +194,6 @@
     <t>cliques</t>
   </si>
   <si>
-    <t>cliques + SL</t>
-  </si>
-  <si>
-    <t>regular + SL</t>
-  </si>
-  <si>
     <t>REGULAR/RAND</t>
   </si>
   <si>
@@ -224,9 +218,6 @@
     <t>clique 9</t>
   </si>
   <si>
-    <t>clique</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -240,6 +231,12 @@
   </si>
   <si>
     <t>Time (s)</t>
+  </si>
+  <si>
+    <t>regular -SL</t>
+  </si>
+  <si>
+    <t>cliques -SL</t>
   </si>
 </sst>
 </file>
@@ -381,9 +378,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,6 +394,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +470,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -855,7 +851,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$1</c15:sqref>
@@ -882,7 +878,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$10</c15:sqref>
@@ -923,7 +919,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2:$L$10</c15:sqref>
@@ -963,7 +959,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-A5EF-4119-AF1E-AC5FCB99E2F1}"/>
                   </c:ext>
@@ -976,7 +972,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$M$1</c15:sqref>
@@ -1003,7 +999,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$10</c15:sqref>
@@ -1044,7 +1040,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$M$2:$M$10</c15:sqref>
@@ -1084,7 +1080,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-A5EF-4119-AF1E-AC5FCB99E2F1}"/>
                   </c:ext>
@@ -1097,7 +1093,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$1</c15:sqref>
@@ -1124,7 +1120,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$10</c15:sqref>
@@ -1165,7 +1161,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$2:$N$10</c15:sqref>
@@ -1205,7 +1201,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-A5EF-4119-AF1E-AC5FCB99E2F1}"/>
                   </c:ext>
@@ -1218,7 +1214,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$O$1</c15:sqref>
@@ -1245,7 +1241,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$10</c15:sqref>
@@ -1286,7 +1282,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$O$2:$O$10</c15:sqref>
@@ -1326,7 +1322,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-A5EF-4119-AF1E-AC5FCB99E2F1}"/>
                   </c:ext>
@@ -1339,7 +1335,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$1</c15:sqref>
@@ -1365,7 +1361,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$10</c15:sqref>
@@ -1406,7 +1402,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$2:$R$10</c15:sqref>
@@ -1446,7 +1442,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-A5EF-4119-AF1E-AC5FCB99E2F1}"/>
                   </c:ext>
@@ -1600,7 +1596,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$T$1</c15:sqref>
@@ -1626,7 +1622,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$10</c15:sqref>
@@ -1667,7 +1663,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$T$2:$T$10</c15:sqref>
@@ -1707,7 +1703,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-A5EF-4119-AF1E-AC5FCB99E2F1}"/>
                   </c:ext>
@@ -1720,7 +1716,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$U$1</c15:sqref>
@@ -1747,7 +1743,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$10</c15:sqref>
@@ -1788,7 +1784,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$U$2:$U$10</c15:sqref>
@@ -1828,7 +1824,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-A5EF-4119-AF1E-AC5FCB99E2F1}"/>
                   </c:ext>
@@ -1972,6 +1968,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="555954960"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2037,7 +2034,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2457,7 +2453,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Execution Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> (s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2557,7 +2582,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2590,16 +2614,16 @@
                 <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>regular -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>cliques -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>regular</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="3">
                     <c:v>cliques</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>regular + SL</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>cliques + SL</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2705,16 +2729,16 @@
                       <c:ptCount val="4"/>
                       <c:lvl>
                         <c:pt idx="0">
+                          <c:v>regular -SL</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>cliques -SL</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
                           <c:v>regular</c:v>
                         </c:pt>
-                        <c:pt idx="1">
+                        <c:pt idx="3">
                           <c:v>cliques</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>regular + SL</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>cliques + SL</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -2932,7 +2956,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3034,7 +3057,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3067,16 +3089,16 @@
                 <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>regular -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>cliques -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>regular</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="3">
                     <c:v>cliques</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>regular + SL</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>cliques + SL</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3182,16 +3204,16 @@
                       <c:ptCount val="4"/>
                       <c:lvl>
                         <c:pt idx="0">
+                          <c:v>regular -SL</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>cliques -SL</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
                           <c:v>regular</c:v>
                         </c:pt>
-                        <c:pt idx="1">
+                        <c:pt idx="3">
                           <c:v>cliques</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>regular + SL</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>cliques + SL</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -3409,7 +3431,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3511,7 +3532,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3544,16 +3564,16 @@
                 <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>regular -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>cliques -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>regular</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="3">
                     <c:v>cliques</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>regular + SL</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>cliques + SL</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3659,16 +3679,16 @@
                       <c:ptCount val="4"/>
                       <c:lvl>
                         <c:pt idx="0">
+                          <c:v>regular -SL</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>cliques -SL</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
                           <c:v>regular</c:v>
                         </c:pt>
-                        <c:pt idx="1">
+                        <c:pt idx="3">
                           <c:v>cliques</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>regular + SL</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>cliques + SL</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -3886,7 +3906,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3954,16 +3973,16 @@
                 <c:ptCount val="36"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>regular -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>cliques -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>regular</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="3">
                     <c:v>cliques</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>regular + SL</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>cliques + SL</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>random regular</c:v>
@@ -3972,16 +3991,16 @@
                     <c:v>random clique</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>regular -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>cliques -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>regular</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="9">
                     <c:v>cliques</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>regular + SL</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>cliques + SL</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>random regular</c:v>
@@ -3990,16 +4009,16 @@
                     <c:v>random clique</c:v>
                   </c:pt>
                   <c:pt idx="12">
+                    <c:v>regular -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>cliques -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>regular</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="15">
                     <c:v>cliques</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>regular + SL</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>cliques + SL</c:v>
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>random regular</c:v>
@@ -4008,7 +4027,7 @@
                     <c:v>random clique</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>regular</c:v>
+                    <c:v>regular -SL</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>cliques</c:v>
@@ -4020,10 +4039,10 @@
                     <c:v>random clique</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>regular</c:v>
+                    <c:v>regular -SL</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>clique</c:v>
+                    <c:v>cliques -SL</c:v>
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>random regular</c:v>
@@ -4376,6 +4395,587 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Modularity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fitness</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet5!$A$2:$B$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet5!$A$2:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>regular -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>cliques -SL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>regular</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>cliques</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>random regular</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>random clique</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Karate</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet5!$C$2:$C$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet5!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.41089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-887F-4E01-8697-39B8C40B6418}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="564493024"/>
+        <c:axId val="564497288"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>time</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-BE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet5!$A$2:$B$19</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$A$2:$B$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="6"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>regular -SL</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>cliques -SL</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>regular</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>cliques</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>random regular</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>random clique</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Karate</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet5!$D$2:$D$19</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$D$2:$D$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000\s</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>3.49E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.4400000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.4478</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2650999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-887F-4E01-8697-39B8C40B6418}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="564493024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564497288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564497288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564493024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4616,6 +5216,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7132,6 +7772,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7651,7 +8794,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7681,7 +8830,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7716,7 +8871,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7733,20 +8894,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7765,20 +8932,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7810,7 +8983,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7820,6 +8999,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE626E8C-788E-458D-A8CB-9EE1B04CFF39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8171,13 +9388,13 @@
       </c>
       <c r="G1" s="3"/>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M1" t="s">
         <v>48</v>
@@ -8457,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <f>L5/K5</f>
+        <f t="shared" ref="U5:U10" si="3">L5/K5</f>
         <v>1.3345476624165149</v>
       </c>
     </row>
@@ -8500,11 +9717,11 @@
         <v>4.4946000000000002</v>
       </c>
       <c r="P6" s="12">
-        <f t="shared" ref="P6" si="3">(K6-M6)/K6</f>
+        <f t="shared" ref="P6" si="4">(K6-M6)/K6</f>
         <v>0.55913062007244829</v>
       </c>
       <c r="Q6" s="12">
-        <f t="shared" ref="Q6" si="4">(L6-N6)/L6</f>
+        <f t="shared" ref="Q6" si="5">(L6-N6)/L6</f>
         <v>0.70856998637120783</v>
       </c>
       <c r="R6" s="12">
@@ -8517,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <f>L6/K6</f>
+        <f t="shared" si="3"/>
         <v>10.553483912209675</v>
       </c>
     </row>
@@ -8554,11 +9771,11 @@
         <v>1.7155999999999998</v>
       </c>
       <c r="P7" s="12">
-        <f>(K7-M7)/K7</f>
+        <f t="shared" ref="P7:Q10" si="6">(K7-M7)/K7</f>
         <v>2.560641031224143E-2</v>
       </c>
       <c r="Q7" s="12">
-        <f>(L7-N7)/L7</f>
+        <f t="shared" si="6"/>
         <v>0.10543397472954007</v>
       </c>
       <c r="R7" s="12">
@@ -8571,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <f>L7/K7</f>
+        <f t="shared" si="3"/>
         <v>2.1093062753124592</v>
       </c>
     </row>
@@ -8601,11 +9818,11 @@
         <v>7.6100000000000012</v>
       </c>
       <c r="P8" s="12">
-        <f>(K8-M8)/K8</f>
+        <f t="shared" si="6"/>
         <v>0.2938624223263927</v>
       </c>
       <c r="Q8" s="12">
-        <f>(L8-N8)/L8</f>
+        <f t="shared" si="6"/>
         <v>0.43711234775418728</v>
       </c>
       <c r="R8" s="12">
@@ -8618,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <f>L8/K8</f>
+        <f t="shared" si="3"/>
         <v>5.0101111959010138</v>
       </c>
     </row>
@@ -8663,11 +9880,11 @@
         <v>224.06039999999999</v>
       </c>
       <c r="P9" s="12">
-        <f>(K9-M9)/K9</f>
+        <f t="shared" si="6"/>
         <v>0.3243714593729376</v>
       </c>
       <c r="Q9" s="12">
-        <f>(L9-N9)/L9</f>
+        <f t="shared" si="6"/>
         <v>0.43622142153559024</v>
       </c>
       <c r="R9" s="12">
@@ -8680,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <f>L9/K9</f>
+        <f t="shared" si="3"/>
         <v>2.7649277465709856</v>
       </c>
     </row>
@@ -8729,11 +9946,11 @@
         <v>591.44100000000003</v>
       </c>
       <c r="P10" s="12">
-        <f>(K10-M10)/K10</f>
+        <f t="shared" si="6"/>
         <v>5.9354210540228568E-2</v>
       </c>
       <c r="Q10" s="12">
-        <f>(L10-N10)/L10</f>
+        <f t="shared" si="6"/>
         <v>0.10647373966737447</v>
       </c>
       <c r="R10" s="12">
@@ -8746,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <f>L10/K10</f>
+        <f t="shared" si="3"/>
         <v>2.6325229757950108</v>
       </c>
     </row>
@@ -8881,14 +10098,14 @@
         <v>1.097</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -8918,12 +10135,12 @@
       <c r="L20" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="21">
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -8948,12 +10165,12 @@
       <c r="L21" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="21">
         <v>3.04E-2</v>
       </c>
       <c r="N21" s="7"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="21"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="20"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
@@ -8972,34 +10189,34 @@
       <c r="L22" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="21">
         <v>1.0329999999999999</v>
       </c>
       <c r="N22" s="7"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="21">
         <v>0.14180000000000001</v>
       </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="21"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L24" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="21">
         <v>4.4946000000000002</v>
       </c>
       <c r="N24" s="7"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="21"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -9020,12 +10237,12 @@
       <c r="L25" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="21">
         <v>1.7155999999999998</v>
       </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="21"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="20"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -9050,12 +10267,12 @@
       <c r="L26" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="21">
         <v>7.6100000000000012</v>
       </c>
       <c r="N26" s="7"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="21"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="20"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -9074,12 +10291,12 @@
       <c r="L27" t="s">
         <v>9</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="21">
         <v>224.06039999999999</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="20"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -9109,12 +10326,12 @@
       <c r="L28" t="s">
         <v>10</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="21">
         <v>591.44100000000003</v>
       </c>
       <c r="N28" s="7"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="21"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="20"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -9727,7 +10944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -10066,7 +11283,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="11">
@@ -10127,7 +11344,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="11">
@@ -10460,7 +11677,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E14" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="11">
         <v>0.2472</v>
@@ -10516,7 +11733,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E15" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15">
         <v>0.29509999999999997</v>
@@ -10848,7 +12065,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E22" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" s="11">
         <v>0.41739999999999999</v>
@@ -10904,7 +12121,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E23" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G23" s="11">
         <v>0.62180000000000002</v>
@@ -11236,7 +12453,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E30" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G30" s="11">
         <v>0.46229999999999999</v>
@@ -11292,7 +12509,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E31" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" s="11">
         <v>0.46629999999999999</v>
@@ -11430,7 +12647,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="11">
@@ -11467,7 +12684,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="5"/>
       <c r="E37" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="11">
@@ -11660,7 +12877,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5">
@@ -11697,7 +12914,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="5"/>
       <c r="E45" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="11">
@@ -11886,7 +13103,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5">
@@ -11923,7 +13140,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="5"/>
       <c r="E53" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="11">
@@ -12004,8 +13221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12026,278 +13243,278 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="str">
+      <c r="A2" s="22" t="str">
         <f>Sheet2!A2</f>
         <v>Karate</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <f>Sheet2!G2</f>
         <v>0.41089999999999999</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <f>Sheet2!F2</f>
         <v>3.49E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <f>Sheet2!G3</f>
         <v>0.40910000000000002</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <f>Sheet2!F3</f>
         <v>4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="22"/>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <f>Sheet2!G4</f>
         <v>0.41980000000000001</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>Sheet2!F4</f>
         <v>1.4478</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="22"/>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <f>Sheet2!G5</f>
         <v>0.41739999999999999</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f>Sheet2!F5</f>
         <v>1.2650999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <f>Sheet2!G6</f>
         <v>0.2198</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>66</v>
+      <c r="D6" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="22"/>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <f>Sheet2!G7</f>
         <v>0.1787</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>66</v>
+      <c r="D7" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="str">
+      <c r="A8" s="22" t="str">
         <f>Sheet2!A10</f>
         <v>Football</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <f>Sheet2!G10</f>
         <v>0.54169999999999996</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>Sheet2!F10</f>
         <v>0.3372</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <f>Sheet2!G11</f>
         <v>0.56559999999999999</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f>Sheet2!F11</f>
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <f>Sheet2!G12</f>
         <v>0.59730000000000005</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <f>Sheet2!F12</f>
         <v>13.1495</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="22"/>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <f>Sheet2!G13</f>
         <v>0.57589999999999997</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f>Sheet2!F13</f>
         <v>3.6059999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <f>Sheet2!G14</f>
         <v>0.2472</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>66</v>
+      <c r="D12" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="22"/>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <f>Sheet2!G15</f>
         <v>0.29509999999999997</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>66</v>
+      <c r="D13" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="str">
+      <c r="A14" s="22" t="str">
         <f>Sheet2!A18</f>
         <v>Facebook</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <f>Sheet2!G18</f>
         <v>0.75280000000000002</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f>Sheet2!F18</f>
         <v>262.28719999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <f>Sheet2!G19</f>
         <v>0.80110000000000003</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <f>Sheet2!F19</f>
         <v>23.8536</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="22"/>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <f>Sheet2!G20</f>
         <v>0.7339</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <f>Sheet2!F20</f>
         <v>699.44259999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="22"/>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <f>Sheet2!G21</f>
         <v>0.82199999999999995</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f>Sheet2!F21</f>
         <v>391.85590000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="22"/>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <f>Sheet2!G22</f>
         <v>0.41739999999999999</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>66</v>
+      <c r="D18" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="22"/>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <f>Sheet2!G23</f>
         <v>0.62180000000000002</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>66</v>
+      <c r="D19" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <f>Sheet2!G34</f>
         <v>0.78220000000000001</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <f>Sheet2!F34</f>
         <v>264.60019999999997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="22"/>
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -12305,234 +13522,234 @@
         <f>Sheet2!G35</f>
         <v>0.7893</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <f>Sheet2!F35</f>
         <v>144.9263</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="22"/>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <f>Sheet2!G36</f>
         <v>0.67190000000000005</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>66</v>
+      <c r="D22" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="22"/>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <f>Sheet2!G37</f>
         <v>0.7137</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>66</v>
+      <c r="D23" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="str">
+      <c r="A24" s="22" t="str">
         <f>Sheet2!A50</f>
         <v>Arxiv</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <f>Sheet2!G50</f>
         <v>0.24149999999999999</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <f>Sheet2!F50</f>
         <v>323.10550000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="22"/>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <f>Sheet2!G51</f>
         <v>0.46029999999999999</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <f>Sheet2!F51</f>
         <v>134.90989999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="22"/>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <f>Sheet2!G52</f>
         <v>0.2145</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>66</v>
+      <c r="D26" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="22"/>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <f>Sheet2!G53</f>
         <v>0.42180000000000001</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>66</v>
+      <c r="D27" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="str">
+      <c r="A28" s="22" t="str">
         <f>Sheet2!A26</f>
         <v>Internet</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <f>Sheet2!G26</f>
         <v>0.49109999999999998</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <f>Sheet2!F26</f>
         <v>331.09</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="22"/>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29">
         <f>Sheet2!G27</f>
         <v>0.50839999999999996</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <f>Sheet2!F27</f>
         <v>344.8365</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="22"/>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <f>Sheet2!G28</f>
         <v>0.47510000000000002</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <f>Sheet2!F28</f>
         <v>135.33250000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="22"/>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31">
         <f>Sheet2!G29</f>
         <v>0.49109999999999998</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <f>Sheet2!F29</f>
         <v>138.23269999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="22"/>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <f>Sheet2!G30</f>
         <v>0.46229999999999999</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>66</v>
+      <c r="D32" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="22"/>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <f>Sheet2!G31</f>
         <v>0.46629999999999999</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>66</v>
+      <c r="D33" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="str">
+      <c r="A34" s="22" t="str">
         <f>Sheet2!A42</f>
         <v>Enron</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34">
         <f>Sheet2!G42</f>
         <v>0.28100000000000003</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <f>Sheet2!F42</f>
         <v>631.12879999999996</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="22"/>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35">
         <f>Sheet2!G43</f>
         <v>0.3614</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <f>Sheet2!F43</f>
         <v>616.07730000000004</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="22"/>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36">
         <f>Sheet2!G44</f>
         <v>0.2712</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>66</v>
+      <c r="D36" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="22"/>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <f>Sheet2!G45</f>
         <v>0.34720000000000001</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>66</v>
+      <c r="D37" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Community/data.xlsx
+++ b/Community/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="68">
   <si>
     <t>Karate</t>
   </si>
@@ -191,9 +191,6 @@
     <t>regular</t>
   </si>
   <si>
-    <t>cliques</t>
-  </si>
-  <si>
     <t>REGULAR/RAND</t>
   </si>
   <si>
@@ -201,15 +198,6 @@
   </si>
   <si>
     <t>random regular</t>
-  </si>
-  <si>
-    <t>random clique</t>
-  </si>
-  <si>
-    <t>regular 25</t>
-  </si>
-  <si>
-    <t>cliques 25</t>
   </si>
   <si>
     <t>regular 9</t>
@@ -236,7 +224,13 @@
     <t>regular -SL</t>
   </si>
   <si>
-    <t>cliques -SL</t>
+    <t>reduced -SL</t>
+  </si>
+  <si>
+    <t>reduced</t>
+  </si>
+  <si>
+    <t>random reduced</t>
   </si>
 </sst>
 </file>
@@ -2544,7 +2538,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2553,7 +2546,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2601,63 +2596,47 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet5!$A$2:$B$19</c15:sqref>
+                    <c15:sqref>Sheet5!$A$20:$B$37</c15:sqref>
                   </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet5!$B$20:$B$37</c15:sqref>
+                  </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet5!$A$2:$B$5</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>regular -SL</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>cliques -SL</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>regular</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>cliques</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Karate</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+              <c:f>Sheet5!$B$28:$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>regular -SL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>reduced -SL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet5!$D$2:$D$19</c15:sqref>
+                    <c15:sqref>Sheet5!$D$20:$D$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet5!$D$2:$D$5</c:f>
+              <c:f>Sheet5!$D$28:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>0.000\s</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.49E-2</c:v>
+                  <c:v>331.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4478</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2650999999999999</c:v>
+                  <c:v>344.8365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,8 +2648,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2713,68 +2693,110 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-BE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet5!$A$2:$B$19</c15:sqref>
+                          <c15:sqref>Sheet5!$A$20:$B$37</c15:sqref>
                         </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>Sheet5!$B$20:$B$37</c15:sqref>
+                        </c15:levelRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet5!$A$2:$B$5</c15:sqref>
+                          <c15:sqref>Sheet5!$B$28:$B$29</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="4"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>regular -SL</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>cliques -SL</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>regular</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>cliques</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>Karate</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>regular -SL</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>reduced -SL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet5!$C$2:$C$19</c15:sqref>
+                          <c15:sqref>Sheet5!$C$20:$C$37</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet5!$C$2:$C$5</c15:sqref>
+                          <c15:sqref>Sheet5!$C$28:$C$29</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>0.41089999999999999</c:v>
+                        <c:v>0.49109999999999998</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.40910000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.41980000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.41739999999999999</c:v>
+                        <c:v>0.50839999999999996</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2814,7 +2836,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2844,6 +2866,7 @@
         <c:axId val="564497288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3092,13 +3115,13 @@
                     <c:v>regular -SL</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>cliques -SL</c:v>
+                    <c:v>reduced -SL</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>regular</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>cliques</c:v>
+                    <c:v>reduced</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3207,13 +3230,13 @@
                           <c:v>regular -SL</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>cliques -SL</c:v>
+                          <c:v>reduced -SL</c:v>
                         </c:pt>
                         <c:pt idx="2">
                           <c:v>regular</c:v>
                         </c:pt>
                         <c:pt idx="3">
-                          <c:v>cliques</c:v>
+                          <c:v>reduced</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -3567,13 +3590,13 @@
                     <c:v>regular -SL</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>cliques -SL</c:v>
+                    <c:v>reduced -SL</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>regular</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>cliques</c:v>
+                    <c:v>reduced</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3682,13 +3705,13 @@
                           <c:v>regular -SL</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>cliques -SL</c:v>
+                          <c:v>reduced -SL</c:v>
                         </c:pt>
                         <c:pt idx="2">
                           <c:v>regular</c:v>
                         </c:pt>
                         <c:pt idx="3">
-                          <c:v>cliques</c:v>
+                          <c:v>reduced</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -3976,85 +3999,85 @@
                     <c:v>regular -SL</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>cliques -SL</c:v>
+                    <c:v>reduced -SL</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>regular</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>cliques</c:v>
+                    <c:v>reduced</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>random regular</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>random clique</c:v>
+                    <c:v>random reduced</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>regular -SL</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>cliques -SL</c:v>
+                    <c:v>reduced -SL</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>regular</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>cliques</c:v>
+                    <c:v>reduced</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>random regular</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>random clique</c:v>
+                    <c:v>random reduced</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>regular -SL</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>cliques -SL</c:v>
+                    <c:v>reduced -SL</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>regular</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>cliques</c:v>
+                    <c:v>reduced</c:v>
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>random regular</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>random clique</c:v>
+                    <c:v>random reduced</c:v>
                   </c:pt>
                   <c:pt idx="18">
                     <c:v>regular -SL</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>cliques</c:v>
+                    <c:v>reduced -SL</c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>random regular</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>random clique</c:v>
+                    <c:v>random reduced</c:v>
                   </c:pt>
                   <c:pt idx="22">
                     <c:v>regular -SL</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>cliques -SL</c:v>
+                    <c:v>reduced -SL</c:v>
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>random regular</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>random clique</c:v>
+                    <c:v>random reduced</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>regular 25</c:v>
+                    <c:v>regular -SL</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>cliques 25</c:v>
+                    <c:v>reduced -SL</c:v>
                   </c:pt>
                   <c:pt idx="28">
                     <c:v>regular 9</c:v>
@@ -4066,19 +4089,19 @@
                     <c:v>random regular</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>random clique</c:v>
+                    <c:v>random reduced</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>regular 9</c:v>
+                    <c:v>regular -SL</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>clique 9</c:v>
+                    <c:v>reduced -SL</c:v>
                   </c:pt>
                   <c:pt idx="34">
                     <c:v>random regular</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>random clique</c:v>
+                    <c:v>random reduced</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4555,75 +4578,59 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet5!$A$2:$B$19</c15:sqref>
+                    <c15:sqref>Sheet5!$A$20:$B$37</c15:sqref>
                   </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet5!$B$20:$B$37</c15:sqref>
+                  </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet5!$A$2:$B$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>regular -SL</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>cliques -SL</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>regular</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>cliques</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>random regular</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>random clique</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Karate</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+              <c:f>Sheet5!$B$34:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>regular -SL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>reduced -SL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>random regular</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>random reduced</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet5!$C$2:$C$19</c15:sqref>
+                    <c15:sqref>Sheet5!$C$20:$C$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet5!$C$2:$C$7</c:f>
+              <c:f>Sheet5!$C$34:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.41089999999999999</c:v>
+                  <c:v>0.28100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40910000000000002</c:v>
+                  <c:v>0.3614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41980000000000001</c:v>
+                  <c:v>0.2712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41739999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2198</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1787</c:v>
+                  <c:v>0.34720000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4679,136 +4686,63 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="nl-BE"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
                 <c:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet5!$A$2:$B$19</c15:sqref>
+                          <c15:sqref>Sheet5!$A$20:$B$37</c15:sqref>
                         </c15:fullRef>
+                        <c15:levelRef>
+                          <c15:sqref>Sheet5!$B$20:$B$37</c15:sqref>
+                        </c15:levelRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet5!$A$2:$B$7</c15:sqref>
+                          <c15:sqref>Sheet5!$B$34:$B$37</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="6"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>regular -SL</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>cliques -SL</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>regular</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>cliques</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>random regular</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>random clique</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>Karate</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>regular -SL</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>reduced -SL</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>random regular</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>random reduced</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet5!$D$2:$D$19</c15:sqref>
+                          <c15:sqref>Sheet5!$D$20:$D$37</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet5!$D$2:$D$7</c15:sqref>
+                          <c15:sqref>Sheet5!$D$34:$D$37</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.000\s</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:formatCode>0\.000\s</c:formatCode>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>3.49E-2</c:v>
+                        <c:v>631.12879999999996</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.4400000000000002E-2</c:v>
+                        <c:v>616.07730000000004</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.4478</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.2650999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -4849,7 +4783,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-1800000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4879,6 +4813,7 @@
         <c:axId val="564497288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8858,16 +8793,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8894,16 +8829,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9007,15 +8942,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>561974</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9388,13 +9323,13 @@
       </c>
       <c r="G1" s="3"/>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M1" t="s">
         <v>48</v>
@@ -10098,10 +10033,10 @@
         <v>1.097</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
@@ -10944,8 +10879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34:V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11283,7 +11218,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="11">
@@ -11344,7 +11279,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="11">
@@ -11677,7 +11612,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="11">
         <v>0.2472</v>
@@ -11733,7 +11668,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15">
         <v>0.29509999999999997</v>
@@ -12065,7 +12000,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E22" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="11">
         <v>0.41739999999999999</v>
@@ -12121,7 +12056,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E23" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" s="11">
         <v>0.62180000000000002</v>
@@ -12453,7 +12388,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E30" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="11">
         <v>0.46229999999999999</v>
@@ -12509,7 +12444,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E31" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" s="11">
         <v>0.46629999999999999</v>
@@ -12594,6 +12529,14 @@
       </c>
       <c r="T34">
         <v>123</v>
+      </c>
+      <c r="U34">
+        <f>I34/S34</f>
+        <v>0.83215244299674263</v>
+      </c>
+      <c r="V34">
+        <f>J34/T34</f>
+        <v>0.68383577235772364</v>
       </c>
       <c r="X34">
         <v>567</v>
@@ -12634,6 +12577,14 @@
       <c r="T35">
         <v>168</v>
       </c>
+      <c r="U35">
+        <f t="shared" ref="U35:V38" si="0">I35/S35</f>
+        <v>0.83215958083832342</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="0"/>
+        <v>0.70210416666666675</v>
+      </c>
       <c r="X35">
         <v>563</v>
       </c>
@@ -12647,7 +12598,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="11">
@@ -12670,6 +12621,14 @@
       </c>
       <c r="T36">
         <v>232</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>0.82599917808219181</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="0"/>
+        <v>0.72277974137931034</v>
       </c>
       <c r="X36">
         <v>544</v>
@@ -12684,7 +12643,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="5"/>
       <c r="E37" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="11">
@@ -12708,6 +12667,14 @@
       <c r="T37">
         <v>213</v>
       </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>0.82037864768683277</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="0"/>
+        <v>0.6994704225352113</v>
+      </c>
       <c r="X37">
         <v>586</v>
       </c>
@@ -12733,6 +12700,14 @@
       </c>
       <c r="T38">
         <v>286</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>0.8255541666666667</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="0"/>
+        <v>0.71990874125874127</v>
       </c>
       <c r="X38">
         <v>551</v>
@@ -12877,7 +12852,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5">
@@ -12914,7 +12889,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="5"/>
       <c r="E45" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="11">
@@ -13103,7 +13078,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5">
@@ -13140,7 +13115,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="5"/>
       <c r="E53" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="11">
@@ -13207,7 +13182,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13221,8 +13196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13248,7 +13223,7 @@
         <v>Karate</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <f>Sheet2!G2</f>
@@ -13262,7 +13237,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <f>Sheet2!G3</f>
@@ -13290,7 +13265,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <f>Sheet2!G5</f>
@@ -13304,27 +13279,27 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <f>Sheet2!G6</f>
         <v>0.2198</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <f>Sheet2!G7</f>
         <v>0.1787</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -13333,7 +13308,7 @@
         <v>Football</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <f>Sheet2!G10</f>
@@ -13347,7 +13322,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <f>Sheet2!G11</f>
@@ -13375,7 +13350,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <f>Sheet2!G13</f>
@@ -13389,27 +13364,27 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <f>Sheet2!G14</f>
         <v>0.2472</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <f>Sheet2!G15</f>
         <v>0.29509999999999997</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13418,7 +13393,7 @@
         <v>Facebook</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <f>Sheet2!G18</f>
@@ -13432,7 +13407,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <f>Sheet2!G19</f>
@@ -13460,7 +13435,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <f>Sheet2!G21</f>
@@ -13474,27 +13449,27 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <f>Sheet2!G22</f>
         <v>0.41739999999999999</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <f>Sheet2!G23</f>
         <v>0.62180000000000002</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -13502,7 +13477,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <f>Sheet2!G34</f>
@@ -13516,7 +13491,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <f>Sheet2!G35</f>
@@ -13530,27 +13505,27 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <f>Sheet2!G36</f>
         <v>0.67190000000000005</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <f>Sheet2!G37</f>
         <v>0.7137</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -13559,7 +13534,7 @@
         <v>Arxiv</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24">
         <f>Sheet2!G50</f>
@@ -13573,7 +13548,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <f>Sheet2!G51</f>
@@ -13587,27 +13562,27 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <f>Sheet2!G52</f>
         <v>0.2145</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C27">
         <f>Sheet2!G53</f>
         <v>0.42180000000000001</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -13616,7 +13591,7 @@
         <v>Internet</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <f>Sheet2!G26</f>
@@ -13630,7 +13605,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <f>Sheet2!G27</f>
@@ -13644,7 +13619,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <f>Sheet2!G28</f>
@@ -13658,7 +13633,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C31">
         <f>Sheet2!G29</f>
@@ -13672,27 +13647,27 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <f>Sheet2!G30</f>
         <v>0.46229999999999999</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <f>Sheet2!G31</f>
         <v>0.46629999999999999</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -13701,7 +13676,7 @@
         <v>Enron</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <f>Sheet2!G42</f>
@@ -13715,7 +13690,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <f>Sheet2!G43</f>
@@ -13729,27 +13704,27 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <f>Sheet2!G44</f>
         <v>0.2712</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <f>Sheet2!G45</f>
         <v>0.34720000000000001</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
